--- a/Testdata/TC_Unit Manipulation_11.xlsx
+++ b/Testdata/TC_Unit Manipulation_11.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ozUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnhKg8lCS75lloJsdoboYlpxd52VBkSObNUWqvNjWW/pQBEgvQNEkQHpFHooGAZruQ1psd4v2vwRr7/apf6FnLiSHFLUWvS7aol4Ya825zOXMmXO+Mxrjdy+ntnJOPN9ynQelyppaUohjuKblnDwohcGkXNksvavh9qVB7APd06ckAGEFtBx/99K3HpROg2C2i9DFxcXaRW3N9U5QVVUr6FGvOzROyVQvW44f6I5BSrGWebNWScNNc9ojgW7qgc41H5Q6w85ak1hGC2g93dFPiLfWCH3LIb7fdgIrsIhPNT2iB6TZ6r3PF6ZV1zbXKhgt0BPJRmjZJpdLSXK6kINhyciaEq2qVtVypVpWa6OKulvb3t3YWNvZ2vogUowFcVf3gyHxzi2DEYaBPp0x9UpVrVXU2vbGBka5QtBXYgAND2zzkJxbPjGbxLb9QhZBYgPrRgCrLmZMFSNJV3R0+ynse/rsdGQFNimqvud6xABD3WrsPrkYeMJ+o1kXuKNTywvmLX1euK8jn3iDGbVGMVUNt1wnqNvEC45msKnEhD0HhhZ4IcFoCTNRalm+AZ8tJySmNtFtX1ZKMfFD1zvzZ7pB+nBgEe3jwrFd3QTPCiw/sIxk0AUGPvDcGfQIgzdc29yDXoVwDiPuueOAiemwDdc9S2aXx8TMB5g3wJ5O9SASX6Dj4al7MXDs+TAc+4ZnjYnZakTSuTxMT57QboZ+4E5hFgkJc5pEmcM/OGlZMm4Rw5rq9oENRvS1GvSSIuB6GLgTK2i6djh1/GhOGSp+CCsakct4hXEbD2BzHWp01+k4kTw3cy4rrXDoXsRjLjKYESRy3Tei7V5kZIVbQIu2b5HDdoSucs+yIRHIeyFR014xPCUkyHUJzsE05u3R1KI15nRMjBIKBs8E7waqRhNEmf2MVHWX/cDIMRu3HVPIVVhwrslyERP3w+lgDCf4nK1JqwAvQ8KwCrth684ZUB9awWm/Hs0+h4P5mpfKL/IwnNWZrc8ZObaLTMMdx7BDk/AQ0HEmzCnp3Pg2LmXjBVIXTrWGdWc+ms8g5PrWbgAfHpQgCe/6gQdpvqQZbugE3pzGCoyE6E06fjh22AC6vbLOxCPfDwFdzPdCx2i65uqjmdw6R44VrD5DN/R4AFxdhVmPxsLQbxEaVViYX1nfKLIm3yskPnXI1HUsY3Vrg5Hp7M1bLMSPTtXKGoSfr5XlbcjkPNHRs76ymgfQEFJboWHqvu8aFnNWcTxMSR8tOTItMtFDG2BZAEn1JI62WTKu+2dZGZmEjzw7inkaBb0+oF7DnK4ZABcoslsz3CklIACbD4cYyfIU8xik7Zx0deckBFQRx5UsPY64NCOOPN3x6XJiEJEJvvlCOIpTHNxoPHgNQuYIPHi5wMUoI4dHZDpzPd3ugWGsPeF2AiEB+OjpwaloQTaziREZGSWqsVZ6ZtHEbxJjaYkvgx54ESYzRCZE18LxdSKT0DBdZQ+Opd3UbWvs8agaJe88HmxYAgej+EsXVxAaRnsANRbk2++SOQXeSUPQmctWIgZ3YBpIteHh+nZ1Q6XFBGtjtuJ99zxQAPUSQIVKWRnpl8o7SscxrXPLDHUbPoLzwcq4eUQKKqQp6+C9KL6zKdRhnmlKWgCQxYkF6WNRMOYkCtox0T17LgnyJXZdA+SuP/n71bNfXX/y56sf/q788sufXn38xT//+osXT7968ewZp/I1cmk80sc2YTMaNba31do6OFhMwtSqiKFgMzQCRjs+ZuA3bmNRrLFGs91p7ncbLJDExEid5xJE68C5GybNIV8FG4jtJYpcgItooygwiXaKK+UmjdZl5yQtLfOXKXJbvHz++5fP/7BUWxgsAVmVnZ1tVvjejMEqC3IxBuumgj8VXi+rG+VqVRLOyOBDHvljO3VMDernHbWypVbiIG7GXpwnlGWJnkb6CcrocVKT46LYBeR2xGSePyJ+ELP5WZAawkf/9KNXf/w0JSWsKyjpXmByDL/QwVDUYF33D0fKcHB02Gwro/aQ+knCk+R4568RFqPHByrlVI4Dp/w7CmR1yGJKCYqfkuJOFKIbp8ocjqJ0EFPOlkflA92yy+ws9z03nPEdkRQSao5kHE5yNXKCDeMxey5EnYSVI87nevWXb/IUxEJaCZLVDnsNZerEfsloOMXhJIkvTu3nf3vx9CMa3J787OrpD1I9iHHiGwDwczhNcjN2ewh5ItFkKPjhkBnzTH0sJRZBpBXUgWs5ga9V1lnxJFoYVCu0N/Ybd6aQ61jHzF5Az1Dwe7rfvgzEwdb6GKUJMM+ZDmnWTcrMmMBjeGLXf/z6N9e//Ob6syevPvrq6uMvr3782cvnv3319Rf81F1/+uT6J1+LKJ9NBGwutHjl6E9hVyGGQk+jQpO28u2HP1ccN1AAayghi0jffvi51BmdKEMlSc+A5eKJpKewICorUz1Fmko8h5RerMIzf5OmsFosIZKYO7OMZJAPyrQreu4Y463OqBz6RHEBRr0NK0kLJ8qr6gkVnlIPttRqpSq4fDZ0CWPdl0y/b7tjgBERg901ZERSWq9XSGTZePvdQaPeTUT4JAaeSTzqhvwD7vgRmozcS6IAF1CeEdr0SmhBbJGFo09S6ELibmVSN2nI09S8+4uUBG6GnsdRkCPu5IfhDJBvdAO3nM9uJSWw2+fAVIa/SbvTSvOhLXEh+aXZlMD4LBwJFg9NHZ9e43Ds2qemSZrAS91kgjnEtTtHV4AkiYdorGl7nuvlBpyEE4n1ADZDFEGJxWMZRIfkENtM9ioiREHuHmrfQ+17qH0Pte+h9v8b1B4vhdrj5VA7R7E4wq4sR9iVxzubhmlMNkl5sjmelNcrY7083jFqZbWmm+bYnKiT8eQ/AL6jzcr5kmHpHFbPSrfZ99e5Yk7VdNeR9I1z9uuD6Q1B7uaaDb1mx+4rqftK6q4rqUpcSUVI3Od3/ZlvACAYmdpRvzN63Kv3OwdH3fqoM6C1AkUQUkLjIkfdUeeg22kfvtWwbBvo7yi82AmYrZQp/Y5hZlv0ERJ1JctRglOihHDkFQcW8Db9ikbKksmbJT65uC3QPESBExL04l4jUP++bodEa8A8+SeGVbXmoD8c1fuQ3MWXR5ku80bQZzOb5Y1lg+zVu8N2sXGQvCyOarO1iUSNNygJmHXPCk6hA8sYzAj/KsOHyLogF6vSGjBRUvK0WJmYrbJFlHK5Arlt1YV4DYJSYRhlMk62HQVEmY6kYgZJ9QnKq0ZQqvxAb1xqoKUlwnJONNMkX+XeI+Sks1y5ZYVBrvDNhUEWzTPK6lgfpfIeWsTyCQktheloAYujfHS8hLygErt/LjHPq2LMkkuMBpAwJOKQBS0iTnQ3d7dIhmnqGyHF1cEDkghoMZmnSSiVfVE208oEJKVFlJMEMzSUzmJIRCX0v3bnJ8b+b770Q7e55kN3d5snJZaWNZkcA7J8lDypigh8xkkvtMFz6gJWQRKYkXxDvLu6W2e5O8iT1/n95XPRy+fVa/F/y700Sh6PJLipRWyAeUWfKEfaPff81rrgFkVVO/7ANoWdi71/ic2SdCA/GKc+VHQydc8D3EFfmBZ+4d21nLNOsdVr64ZZ26lu6cb21lbV2NInxKzuGCrZIdvrm+oWgCnWKa0RaBdTQIf0MVGxQSo0asnqycOvQ905KdgbNzBTpI+jwFLsrIoyOW7jPcvzg0cUGohPnHIcU445nHykVTlmfMTbx1pN/HEDCCB5MJSadRR6Av63Ba7dtaZWwQdUahSf0p2AG8xmHB0W3dBmq9cnlwFGUg+AJMbfA9DCXxwW6Y2fKiiLYv2or2E4LtwdipQPgE8d63babRNA5+212Ut9y36DCTCoedsuOo5vnZwGRfd129ww1msb2+V1tWrCf7Xt8phMINqr6sZ6ZUs112lqjDuHxGGRi4KD0HRj+aFuF9dDmT+10v4FwlJqq6M1AAA=</t>
+          <t>PTYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSosOLcEqXs5zV4bLkSbIvKYiEJKwpUsvDtv79NgAeIEUlouPZfVg7rorQB45Go/trCMa/v+xd7YkGIfO9T1fGtX6lUc/2HeZtP13F0aZhdK5+N/HkxabuHQnInkYgrIGWF968hOzT1S6KDjcIPT8/Xz+3rv1gi5q6bqCvs+nS3tE9aTAvjIhn06tMy/m51pWJR85+RiPikIhIzU9X1tK6HlFmj4E2Ix7Z0uB6GIfMo2E48SIWMRpyzYCSiI7Gsz/lwszmdefawOiEnksOY+Y6Uq4gKemJHAxLV2xPzabe1Bt6t2G0Vnr3ptm/abauja7+z1QxE8RTEkZLGjwxWxCWEdkfhLreNVp6t9lvtjCqFIK+cgOYeOE69/SJhdQZUdcNa1kEJRs4sCNYdT1j6hgpuklHr5/C54AcdisWubSu+q0fUBsM9aqx5/R5EST2Wx2mwF3tWBAdx+RYu6+HkAaLA7dGPVUTj30vGrg0iB4OsKnUgT0HhhkFMcXoDDNXGrPQhs/Mi6ljbogbqkoFJv7iB4/hgdh0DgcW8T6ePdcnDnhWxMKI2fmgJwx8F/gH6BEGH/qucwu9JsIVjKxnywMT82GHvv+Yz66KiYUPCG+APd2TKBU/oePlzn9eeO5xGa9DO2Br6oyHqXQlD/OTl2iP4jDy9zCLnIQlTaHMZugIP3DYyhw8pjbbE/fOBTuGJhzTIgEP4sjfsGjku/HeC9Nplaj4CyxqRV+yRWZtvID99bjdfc/yUnlp6UpWUeHef87GPGUIOyjkQWinO37KKAuPgZbu4ClHbApf5S1zIReo26FQi46x3FEaVXqF5GAe9m55djGHRz4mRjkFg3OCgwPV5DmiIX5Xun4jfmHkjI0nnpPIGXrDaDZaqlzKxPN4v1jDIX4SazIN4JVIGFbhDl3iPQL1C4t280E6+woOlms+K3/Kw3BcDy45CnJmF5WGLc92Y4fKKGB5G+GUfG5yG8+y8QlpCgfbxMQ7ro4HiLohu4ngw6cryMM3YRRApr8ybT/2ouDIwwVGiejPdMJ47YkBiHuxziag/44BYBxvY88e+c7loznSOg8eiy6foR8HMgZeriKsx8NhHI4pDywi0l+sb9dZUxjUEt97dO97zL7c2mBkPnvnFQsJ01N1sQaV5+tieReSucx1/KxfrBYAOoTsVmuYQRj6NhPOmhwPR9FHZ47MmG5I7AIyiyCvbrNoWybjQfhYllFJ+CFw05hnctwbAvC1nf21DYiBg7tr299zAgK8+WWJkSrPYY9NJ952SrxtDMAiiytlehZxeVJcBcQL+XIyHFEKvtVCOI1TEt+YMngtYuEIMnj5wMWoJIdXdH/wA+LOwDDsNnG7BCQB/piRaJe0IJu51E6NjHLVTKs4s3TiPxMTaUkugx/4JEyWiEKIr0VC7Fwmp2G+yhkcS3dEXLYOZFRNk3cVDzYsR4Rp/OWLq4kO0z2AMgvy7T/okWPvvJHQhcsaKUM6MA+k5vK+3ev22q0mYBnexmLFH8aj3wC3ObEw2o02ZRB/N4w62hxCHNhT+0zCG202G64eIA0KIyWJ6BX6qia+TWO9mM4MXLZAKPIBZGwZZJITuYyRy5szgJ4796hIytVOfRsEP8DJ8w/aPXNZKOf+CIGBz1MbuGSvjQgLCiuWanhF1i4VU1sNe71evwtOl5EwtzQS4JjbQtCs8VyA4oyAkyJONEYTa3R3PxPRJSOm+jLBIF4fHv04by7lesRIYoNR6hdSxByl0SppF7hKwjLVgqCoo0qdU5cmUQx5tovEeAWM1rkQozU5RtMrMdq0kBySghs67SvCJRl8LzNDZjILCvqPbaPZ0vVmFuSdzL+rhMqspKcV2aKSniSNJG5K3IGfvLydMsVpsDzHh/POSCYjD4nSkJasFkysnFAqhGCmAuzwkVHaEEOMGdTNEYTOiGqfqUf5mfU32oK5GvEcfizANrm4oioH5fqPQl/7A1K80J8x70geNYd44lgN4z1TO0lmm51O1eNOz27BH6uosrsfKpZH/Bz48eEk7uTUCsnKCHTKLWkKm51OLedVyMvJDmPIocSrUkpWM84hrzmbaxCvtGiX+agg4zJTUhUR2dcfcUSEzD1bx4UukrGyGwNwejhaajM7AxALk6xUouAvS2HVR/27koUSIi+37nzmRaHZa4tKK2lhUDV4b+J/bO0hMYqOhd2AXqLgv5Nw8hIlp9yE2FskwDwPBNzUz2vSjCCDe25baFJXs8bX98OhbrRvtDN5QiskkyQhlHOGmJ34dNLjj7Km9kGN0WrnfClCMx8pnZ82gRO85aetLKHqmELqqMyhoJDJSuAwgmzX62YSSb7zD8zOe1+KGJCNXuLm0unISxFzFMFERubXu16n3zISrhyPg6M1CWlFJIRl0D2L91oqI+4lStKFDi7WzdVkCJ+PF/PJ0hrkUnJ2iwACH/dJ+QFbYYpDU19TKMAFfGjD+Y7oqdgpC6eflICGkluZzcDhd/GmXnXzUZDAozgIJGrykgv9ZXwAzJxdvJwXEHeaCk6eS0yrIue8bY2LfGgrXMiLRTYnCL4ITQlLhikr5DdAEvbOuW3yJvAK96Bgj+TSXoKwJwb7gHjkmQSBH1SGn5yTis0AcUNMQbnJMxnEh5To3Mk3KyWkIe8dpb+j9HeU/o7S31H6O0qvQOmGLn4E0l57VVC9LPFfwOvGebxufG/2u05Xp3qj09r0G+11c9PoNdtGo0N1x+6Q7sd2i/wPoHy6kRXfb5ydw8WZ7FUu8SM3rS7C3jrYvlHC/3HUvSQa/rweRD/Yv/cq7b1K+0urNCOr0lKQH8pvIErfS0CccsyHubX6PhvMrbuH6WBlLXgZwsGHku2kyMN0Zd1Nrcn9hyFzXaD/TZN1VKT5nnvU9vybj4PL+Osoz4805kEooFoMoUDzYA2/8S+OlBSaP6aSk8vaSaEA0WFLo1nWa1ov/EncmJpDmKf8JCCvOVrMl6vBfAWbJb/SKnVZNQI5HFyRUs4NcjuYLif1xkHqsiQ2Lpc9CjXboDyWDgIW7aADZi8OVH7BAsjnVC5T5eVlrqRVaYkKtFzBJyHLlwr0tQUdkjUNKoRnVEpG5XYaHVU6UoojpJQ5qKqoQYUiBv1ywYLOlhjnOelM8zxWeUdRkeYq5c7VFJXCP68pyoWAoFxeJqBCJkSnFUBOQmdBPTqB6agaOp8hn6hk7l9JrPKqDM5UEtMBFHiJJJpBp5gUvc0lMVIRnP5LIPJyJIEUAjrN20USKiReVE6yKgEp+RJVZMcSDRUTGUqiEnq/T3zz+0T0mhtE9HYXhUpiGbPN5hsA4K/5Q6+UIGec98IbMqeeYBWkgBnFN5LXYG/rLG8Heao6//9yxDe52L68Tv9L7rxR/qYlB05j6gLOq/t4OtWe+U+v1gW/qKtqhQvXSexc71lOZpa8A/UpO/ehupMZBAEAD/7wtfbb8ynzHq16qzd7XdoB1+m3PtpNhzq9zbq9Ia1WZ00M+Adrk53yIoF3sQd4yN841RvE4GFLVc/fo90Tb1uzN2lgocjfbIGl5CUpKPH3Wmkb37IgjL5ybJB8kpRvGeWbxJNfzaYEjV9l+5vZ+ygJIIDUwVBh1mnsieRfPfjulO1ZzXddehqfip2AGxwOEh7W3dDReDanLxFGSg8AJdb/AtQiH0LW6U2eKqiLMv20r2W8rt0dSpXvgM8d63XaEwdQ5+u1xd8QMPcXJiCw5mu7sLyQbXdR3X01Omuj1+w7ENTbtNFud3qN/se10+j3SatHO3bb1nv85XfSOSQORp9rDsLTDQtj4tbXQ6U/AjP/A94aVJU9NgAA</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB bn</t>
+          <t>1000000 BTU bn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1.231927</v>
+        <v>0.09337463980350001</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1962427157566667</v>
+        <v>6.758867972409232e-05</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>0.4429929071177852</v>
+        <v>0.00822123346731452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892373</v>
+        <v>0.5786993566761651</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045305</v>
+        <v>-0.2909755924600814</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>0.72763</v>
+        <v>0.08046544901</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2.02683</v>
+        <v>0.11248241951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1.181145</v>
+        <v>0.092555497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.7910199999999999</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.1025846417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.76773</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.09346754944000001</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.72763</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.09860701212</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.92291</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.09739564367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1.12649</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.09207512437</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.09523223819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.1000477073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.09530724011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.08991783798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.09839583232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.09817013428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1.2358</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.09856894826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.0955242498</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.08361702268</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.09860701212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.08731359292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.08909212278</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.08358049620000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.08906282719</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.0931599971</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.08658908224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.09303587051999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.09135615084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1.48271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.09568873797000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.0963289469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.09895375302999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.09009777222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.08215580794000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.09061221428000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0.08346869956</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.08588046527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.08807195206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.0864116581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.08586346357000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.08791115602000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1.59861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.09178990821999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0.09203037177999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.08046544901</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0.08155851788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.08165746119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0.08330878529000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0.08483949019000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0.09041366712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.08594556742999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0.08467243913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.08537054400999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.0865784388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.63954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0.09715665666999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.09728910838</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.09467143679999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.11040324314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.09964066865</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>0.1100558161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>0.09493002968</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.11107915933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.11248241951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.10550317811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.10776502529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0.10136403607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2.02683</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>0.10935400938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551FAC8-1BC3-44E9-B1DB-FACB1CCCE335}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE5F777-8A1C-4CD0-BD24-D83A50F9DC8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
